--- a/model/Outputs/8. Fixed RE/With PV/Output Files/0/Output_4_31.xlsx
+++ b/model/Outputs/8. Fixed RE/With PV/Output Files/0/Output_4_31.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3325901.034300571</v>
+        <v>3325901.034300574</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>80663.73099500734</v>
+        <v>16052082.46800645</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>80663.73099500734</v>
+        <v>16052082.46800645</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>65614.34050177304</v>
+        <v>3940022.790763143</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>65614.34050177304</v>
+        <v>3940022.790763143</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1494247180.596206</v>
+        <v>56687243.12577439</v>
       </c>
     </row>
   </sheetData>
@@ -682,7 +682,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H2" t="n">
-        <v>346.470696320097</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>361.0088210686545</v>
+        <v>359.6204767756762</v>
       </c>
       <c r="T2" t="n">
         <v>560.964918411981</v>
@@ -870,7 +870,7 @@
         <v>105.228266425598</v>
       </c>
       <c r="R4" t="n">
-        <v>208.1413738827904</v>
+        <v>208.1413738827905</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>410.3391557398498</v>
       </c>
       <c r="E5" t="n">
-        <v>402.9749453138904</v>
+        <v>404.3632896068686</v>
       </c>
       <c r="F5" t="n">
         <v>404.8896287080119</v>
@@ -919,7 +919,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H5" t="n">
-        <v>347.8590406130752</v>
+        <v>346.470696320097</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>481.9993129555745</v>
+        <v>480.6109686625962</v>
       </c>
       <c r="C8" t="n">
         <v>449.4745782429939</v>
@@ -1192,7 +1192,7 @@
         <v>361.0088210686545</v>
       </c>
       <c r="T8" t="n">
-        <v>559.576574119003</v>
+        <v>560.964918411981</v>
       </c>
       <c r="U8" t="n">
         <v>648.751427201877</v>
@@ -1232,10 +1232,10 @@
         <v>339.6362423378769</v>
       </c>
       <c r="G9" t="n">
-        <v>322.5970075731406</v>
+        <v>321.0633076155676</v>
       </c>
       <c r="H9" t="n">
-        <v>300.2841796816783</v>
+        <v>301.8178796392513</v>
       </c>
       <c r="I9" t="n">
         <v>108.929687778141</v>
@@ -1387,13 +1387,13 @@
         <v>404.3632896068686</v>
       </c>
       <c r="F11" t="n">
-        <v>404.8896287080119</v>
+        <v>403.5012844150336</v>
       </c>
       <c r="G11" t="n">
         <v>397.8840054528454</v>
       </c>
       <c r="H11" t="n">
-        <v>346.470696320097</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1563,16 +1563,16 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>25.70923750768745</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1739,10 +1739,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>350.6276822404662</v>
+        <v>352.1613821980396</v>
       </c>
       <c r="S15" t="n">
-        <v>408.192915058951</v>
+        <v>406.6592151013782</v>
       </c>
       <c r="T15" t="n">
         <v>392.6911708778912</v>
@@ -1867,7 +1867,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H17" t="n">
-        <v>346.470696320097</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>638.3734759809475</v>
       </c>
       <c r="X17" t="n">
-        <v>592.2818334606677</v>
+        <v>590.8934891676897</v>
       </c>
       <c r="Y17" t="n">
         <v>511.3174326828064</v>
@@ -2043,10 +2043,10 @@
         <v>107.6476277959926</v>
       </c>
       <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
         <v>25.70923750768745</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G20" t="n">
-        <v>396.4956611598672</v>
+        <v>397.8840054528454</v>
       </c>
       <c r="H20" t="n">
         <v>347.8590406130752</v>
@@ -2137,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>361.0088210686545</v>
+        <v>359.6204767756762</v>
       </c>
       <c r="T20" t="n">
         <v>560.964918411981</v>
@@ -2283,10 +2283,10 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
         <v>25.70923750768745</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -2341,7 +2341,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H23" t="n">
-        <v>347.8590406130752</v>
+        <v>346.4706963201042</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2374,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>359.6204767756762</v>
+        <v>361.0088210686545</v>
       </c>
       <c r="T23" t="n">
         <v>560.964918411981</v>
@@ -2450,10 +2450,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>352.1613821980396</v>
+        <v>350.6276822404662</v>
       </c>
       <c r="S24" t="n">
-        <v>406.6592151013782</v>
+        <v>408.192915058951</v>
       </c>
       <c r="T24" t="n">
         <v>392.6911708778912</v>
@@ -2517,10 +2517,10 @@
         <v>107.6476277959926</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>25.70923750768745</v>
       </c>
       <c r="O25" t="n">
-        <v>25.70923750768745</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -2578,7 +2578,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H26" t="n">
-        <v>346.470696320097</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2611,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>361.0088210686545</v>
+        <v>359.6204767756762</v>
       </c>
       <c r="T26" t="n">
         <v>560.964918411981</v>
@@ -2876,22 +2876,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>384.5565566463266</v>
+        <v>384.5565566461702</v>
       </c>
       <c r="C30" t="n">
         <v>361.0999124453629</v>
       </c>
       <c r="D30" t="n">
-        <v>347.9376868977026</v>
+        <v>347.9376868975462</v>
       </c>
       <c r="E30" t="n">
-        <v>342.6720972219126</v>
+        <v>342.6720972217562</v>
       </c>
       <c r="F30" t="n">
         <v>339.6362423377204</v>
       </c>
       <c r="G30" t="n">
-        <v>322.5970075731406</v>
+        <v>322.5970075729841</v>
       </c>
       <c r="H30" t="n">
         <v>301.8178796390949</v>
@@ -2924,7 +2924,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>352.1613821978832</v>
+        <v>350.6276822440399</v>
       </c>
       <c r="S30" t="n">
         <v>408.1929150587945</v>
@@ -2939,7 +2939,7 @@
         <v>414.5106671913637</v>
       </c>
       <c r="W30" t="n">
-        <v>430.8394429552027</v>
+        <v>432.3731429096721</v>
       </c>
       <c r="X30" t="n">
         <v>419.8627394452311</v>
@@ -3046,7 +3046,7 @@
         <v>404.3632896068686</v>
       </c>
       <c r="F32" t="n">
-        <v>404.8896287080119</v>
+        <v>403.5012844150336</v>
       </c>
       <c r="G32" t="n">
         <v>397.8840054528454</v>
@@ -3085,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>359.6204767756762</v>
+        <v>361.0088210686545</v>
       </c>
       <c r="T32" t="n">
         <v>560.964918411981</v>
@@ -3225,10 +3225,10 @@
         <v>31.85592323974635</v>
       </c>
       <c r="M34" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>25.70923750768745</v>
+        <v>133.3568653036801</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>481.9993129555745</v>
+        <v>480.6109686625962</v>
       </c>
       <c r="C35" t="n">
         <v>449.4745782429939</v>
@@ -3286,7 +3286,7 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G35" t="n">
-        <v>396.4956611598672</v>
+        <v>397.8840054528454</v>
       </c>
       <c r="H35" t="n">
         <v>347.8590406130752</v>
@@ -3559,7 +3559,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>361.0088210686545</v>
+        <v>359.6204767756762</v>
       </c>
       <c r="T38" t="n">
         <v>560.964918411981</v>
@@ -3574,7 +3574,7 @@
         <v>638.3734759809475</v>
       </c>
       <c r="X38" t="n">
-        <v>590.8934891676897</v>
+        <v>592.2818334606677</v>
       </c>
       <c r="Y38" t="n">
         <v>511.3174326828064</v>
@@ -3754,7 +3754,7 @@
         <v>410.3391557398498</v>
       </c>
       <c r="E41" t="n">
-        <v>404.3632896068686</v>
+        <v>402.9749453138904</v>
       </c>
       <c r="F41" t="n">
         <v>404.8896287080119</v>
@@ -3802,7 +3802,7 @@
         <v>560.964918411981</v>
       </c>
       <c r="U41" t="n">
-        <v>647.3630829088994</v>
+        <v>648.751427201877</v>
       </c>
       <c r="V41" t="n">
         <v>629.8510241668239</v>
@@ -3939,13 +3939,13 @@
         <v>107.6476277959926</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>25.70923750768745</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>25.70923750768745</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -3985,7 +3985,7 @@
         <v>481.9993129555745</v>
       </c>
       <c r="C44" t="n">
-        <v>448.0862339500159</v>
+        <v>449.4745782429939</v>
       </c>
       <c r="D44" t="n">
         <v>410.3391557398498</v>
@@ -4048,7 +4048,7 @@
         <v>638.3734759809475</v>
       </c>
       <c r="X44" t="n">
-        <v>592.2818334606677</v>
+        <v>590.8934891676897</v>
       </c>
       <c r="Y44" t="n">
         <v>511.3174326828064</v>
@@ -4109,10 +4109,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>350.6276822404662</v>
+        <v>352.1613821980396</v>
       </c>
       <c r="S45" t="n">
-        <v>408.192915058951</v>
+        <v>406.6592151013782</v>
       </c>
       <c r="T45" t="n">
         <v>392.6911708778912</v>
@@ -4170,13 +4170,13 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>25.70923750768745</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -4312,22 +4312,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2578.759347546128</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C2" t="n">
-        <v>2124.744622048154</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D2" t="n">
-        <v>1710.260626351336</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E2" t="n">
-        <v>1301.812859071671</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F2" t="n">
-        <v>892.8334361342853</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G2" t="n">
-        <v>490.9304003233303</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H2" t="n">
         <v>140.96</v>
@@ -4363,25 +4363,25 @@
         <v>7048</v>
       </c>
       <c r="S2" t="n">
-        <v>6683.344625183177</v>
+        <v>6684.746993155883</v>
       </c>
       <c r="T2" t="n">
-        <v>6116.713394464005</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U2" t="n">
-        <v>5461.408922542916</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V2" t="n">
-        <v>4825.195766818852</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W2" t="n">
-        <v>4180.374073908803</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X2" t="n">
-        <v>3582.109595665705</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y2" t="n">
-        <v>3065.627340430547</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="3">
@@ -4506,13 +4506,13 @@
         <v>307.8416045893196</v>
       </c>
       <c r="N4" t="n">
-        <v>426.6131206966358</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O4" t="n">
-        <v>426.6131206966358</v>
+        <v>438.463966970767</v>
       </c>
       <c r="P4" t="n">
-        <v>457.4949902104934</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="Q4" t="n">
         <v>351.2038120028187</v>
@@ -4558,13 +4558,13 @@
         <v>1710.260626351336</v>
       </c>
       <c r="E5" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F5" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G5" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233303</v>
       </c>
       <c r="H5" t="n">
         <v>140.96</v>
@@ -4588,10 +4588,10 @@
         <v>3304.235275746249</v>
       </c>
       <c r="O5" t="n">
-        <v>5048.61527574625</v>
+        <v>4214.390158686993</v>
       </c>
       <c r="P5" t="n">
-        <v>5884.482603843663</v>
+        <v>5864.602299897897</v>
       </c>
       <c r="Q5" t="n">
         <v>6931.116362236997</v>
@@ -4816,16 +4816,16 @@
         <v>1339.420289043491</v>
       </c>
       <c r="L8" t="n">
-        <v>3071.357825473565</v>
+        <v>2257.013012360075</v>
       </c>
       <c r="M8" t="n">
-        <v>3553.537024987068</v>
+        <v>2739.192211873577</v>
       </c>
       <c r="N8" t="n">
-        <v>4118.58008885974</v>
+        <v>3304.235275746249</v>
       </c>
       <c r="O8" t="n">
-        <v>5028.734971800483</v>
+        <v>4214.390158686993</v>
       </c>
       <c r="P8" t="n">
         <v>5864.602299897897</v>
@@ -4840,22 +4840,22 @@
         <v>6683.344625183177</v>
       </c>
       <c r="T8" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U8" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V8" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W8" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X8" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y8" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="9">
@@ -4880,7 +4880,7 @@
         <v>880.1629040736968</v>
       </c>
       <c r="G9" t="n">
-        <v>554.3073408685043</v>
+        <v>555.8565327448407</v>
       </c>
       <c r="H9" t="n">
         <v>250.9899876546879</v>
@@ -4980,7 +4980,7 @@
         <v>307.8416045893196</v>
       </c>
       <c r="N10" t="n">
-        <v>307.8416045893196</v>
+        <v>426.6131206966359</v>
       </c>
       <c r="O10" t="n">
         <v>426.6131206966359</v>
@@ -5035,10 +5035,10 @@
         <v>1301.812859071671</v>
       </c>
       <c r="F11" t="n">
-        <v>892.8334361342853</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G11" t="n">
-        <v>490.9304003233303</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H11" t="n">
         <v>140.96</v>
@@ -5211,13 +5211,13 @@
         <v>307.8416045893196</v>
       </c>
       <c r="L13" t="n">
-        <v>275.6639043471516</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M13" t="n">
-        <v>166.9289267754419</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N13" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O13" t="n">
         <v>140.96</v>
@@ -5299,7 +5299,7 @@
         <v>3304.235275746249</v>
       </c>
       <c r="O14" t="n">
-        <v>4214.390158686993</v>
+        <v>5028.734971800483</v>
       </c>
       <c r="P14" t="n">
         <v>5864.602299897897</v>
@@ -5387,7 +5387,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R15" t="n">
-        <v>5571.538498249245</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S15" t="n">
         <v>5159.222422432123</v>
@@ -5497,22 +5497,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2578.759347546128</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C17" t="n">
-        <v>2124.744622048154</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D17" t="n">
-        <v>1710.260626351336</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E17" t="n">
-        <v>1301.812859071671</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F17" t="n">
-        <v>892.8334361342853</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G17" t="n">
-        <v>490.9304003233303</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H17" t="n">
         <v>140.96</v>
@@ -5563,10 +5563,10 @@
         <v>4180.374073908803</v>
       </c>
       <c r="X17" t="n">
-        <v>3582.109595665705</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y17" t="n">
-        <v>3065.627340430547</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="18">
@@ -5691,7 +5691,7 @@
         <v>166.9289267754419</v>
       </c>
       <c r="N19" t="n">
-        <v>140.96</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="O19" t="n">
         <v>140.96</v>
@@ -5734,19 +5734,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2578.759347546128</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C20" t="n">
-        <v>2124.744622048154</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D20" t="n">
-        <v>1710.260626351336</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E20" t="n">
-        <v>1301.812859071671</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F20" t="n">
-        <v>892.8334361342853</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G20" t="n">
         <v>492.3327682960356</v>
@@ -5761,49 +5761,49 @@
         <v>599.7771454756521</v>
       </c>
       <c r="K20" t="n">
-        <v>1936.671378010443</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L20" t="n">
-        <v>3681.051378010443</v>
+        <v>2257.013012360075</v>
       </c>
       <c r="M20" t="n">
-        <v>4163.230577523946</v>
+        <v>2739.192211873577</v>
       </c>
       <c r="N20" t="n">
-        <v>4728.273641396618</v>
+        <v>3373.59157327536</v>
       </c>
       <c r="O20" t="n">
-        <v>5638.428524337362</v>
+        <v>4283.746456216104</v>
       </c>
       <c r="P20" t="n">
-        <v>6474.295852434775</v>
+        <v>5981.4859376609</v>
       </c>
       <c r="Q20" t="n">
-        <v>6931.116362236997</v>
+        <v>7048</v>
       </c>
       <c r="R20" t="n">
         <v>7048</v>
       </c>
       <c r="S20" t="n">
-        <v>6683.344625183177</v>
+        <v>6684.746993155883</v>
       </c>
       <c r="T20" t="n">
-        <v>6116.713394464005</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U20" t="n">
-        <v>5461.408922542916</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V20" t="n">
-        <v>4825.195766818852</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W20" t="n">
-        <v>4180.374073908803</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X20" t="n">
-        <v>3582.109595665705</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y20" t="n">
-        <v>3065.627340430547</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="21">
@@ -5931,7 +5931,7 @@
         <v>166.9289267754419</v>
       </c>
       <c r="O22" t="n">
-        <v>140.96</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="P22" t="n">
         <v>140.96</v>
@@ -5971,22 +5971,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347546135</v>
       </c>
       <c r="C23" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048162</v>
       </c>
       <c r="D23" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351343</v>
       </c>
       <c r="E23" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071678</v>
       </c>
       <c r="F23" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342926</v>
       </c>
       <c r="G23" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233376</v>
       </c>
       <c r="H23" t="n">
         <v>140.96</v>
@@ -6010,37 +6010,37 @@
         <v>3304.235275746249</v>
       </c>
       <c r="O23" t="n">
-        <v>5028.734971800483</v>
+        <v>4214.390158686993</v>
       </c>
       <c r="P23" t="n">
-        <v>5864.602299897897</v>
+        <v>5864.602299897903</v>
       </c>
       <c r="Q23" t="n">
-        <v>6931.116362236997</v>
+        <v>6931.116362237003</v>
       </c>
       <c r="R23" t="n">
-        <v>7048</v>
+        <v>7048.000000000006</v>
       </c>
       <c r="S23" t="n">
-        <v>6684.746993155883</v>
+        <v>6683.344625183184</v>
       </c>
       <c r="T23" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464011</v>
       </c>
       <c r="U23" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542923</v>
       </c>
       <c r="V23" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818859</v>
       </c>
       <c r="W23" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908811</v>
       </c>
       <c r="X23" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665712</v>
       </c>
       <c r="Y23" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430554</v>
       </c>
     </row>
     <row r="24">
@@ -6098,7 +6098,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R24" t="n">
-        <v>5569.989306372909</v>
+        <v>5571.538498249245</v>
       </c>
       <c r="S24" t="n">
         <v>5159.222422432123</v>
@@ -6165,7 +6165,7 @@
         <v>166.9289267754419</v>
       </c>
       <c r="N25" t="n">
-        <v>166.9289267754419</v>
+        <v>140.96</v>
       </c>
       <c r="O25" t="n">
         <v>140.96</v>
@@ -6208,22 +6208,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2578.759347546128</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C26" t="n">
-        <v>2124.744622048154</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D26" t="n">
-        <v>1710.260626351336</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E26" t="n">
-        <v>1301.812859071671</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F26" t="n">
-        <v>892.8334361342853</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G26" t="n">
-        <v>490.9304003233303</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H26" t="n">
         <v>140.96</v>
@@ -6247,7 +6247,7 @@
         <v>3304.235275746249</v>
       </c>
       <c r="O26" t="n">
-        <v>5028.734971800483</v>
+        <v>4214.390158686993</v>
       </c>
       <c r="P26" t="n">
         <v>5864.602299897897</v>
@@ -6259,25 +6259,25 @@
         <v>7048</v>
       </c>
       <c r="S26" t="n">
-        <v>6683.344625183177</v>
+        <v>6684.746993155883</v>
       </c>
       <c r="T26" t="n">
-        <v>6116.713394464005</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U26" t="n">
-        <v>5461.408922542916</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V26" t="n">
-        <v>4825.195766818852</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W26" t="n">
-        <v>4180.374073908803</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X26" t="n">
-        <v>3582.109595665705</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y26" t="n">
-        <v>3065.627340430547</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="27">
@@ -6484,7 +6484,7 @@
         <v>3304.235275746249</v>
       </c>
       <c r="O29" t="n">
-        <v>5028.734971800483</v>
+        <v>4214.390158686993</v>
       </c>
       <c r="P29" t="n">
         <v>5864.602299897897</v>
@@ -6524,19 +6524,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2287.112034235271</v>
+        <v>2287.112034234797</v>
       </c>
       <c r="C30" t="n">
-        <v>1922.364647926824</v>
+        <v>1922.36464792635</v>
       </c>
       <c r="D30" t="n">
-        <v>1570.912438939246</v>
+        <v>1570.91243893893</v>
       </c>
       <c r="E30" t="n">
-        <v>1224.77900740196</v>
+        <v>1224.779007401802</v>
       </c>
       <c r="F30" t="n">
-        <v>881.7120959497172</v>
+        <v>881.7120959495592</v>
       </c>
       <c r="G30" t="n">
         <v>555.8565327445247</v>
@@ -6572,28 +6572,28 @@
         <v>5925.707874250955</v>
       </c>
       <c r="R30" t="n">
-        <v>5569.989306374305</v>
+        <v>5571.538498246874</v>
       </c>
       <c r="S30" t="n">
-        <v>5157.673230557341</v>
+        <v>5159.22242242991</v>
       </c>
       <c r="T30" t="n">
-        <v>4761.015482195992</v>
+        <v>4762.564674068562</v>
       </c>
       <c r="U30" t="n">
-        <v>4356.971427168708</v>
+        <v>4358.520619041277</v>
       </c>
       <c r="V30" t="n">
-        <v>3938.273783541068</v>
+        <v>3939.822975413637</v>
       </c>
       <c r="W30" t="n">
-        <v>3503.082427020661</v>
+        <v>3503.082427020029</v>
       </c>
       <c r="X30" t="n">
-        <v>3078.978649803256</v>
+        <v>3078.978649802624</v>
       </c>
       <c r="Y30" t="n">
-        <v>2675.553000544692</v>
+        <v>2675.55300054406</v>
       </c>
     </row>
     <row r="31">
@@ -6682,16 +6682,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C32" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D32" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E32" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F32" t="n">
         <v>894.2358041069906</v>
@@ -6733,25 +6733,25 @@
         <v>7048</v>
       </c>
       <c r="S32" t="n">
-        <v>6684.746993155883</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T32" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U32" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V32" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W32" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X32" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y32" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="33">
@@ -6873,7 +6873,7 @@
         <v>275.6639043471516</v>
       </c>
       <c r="M34" t="n">
-        <v>166.9289267754419</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="N34" t="n">
         <v>140.96</v>
@@ -6919,19 +6919,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2578.759347546128</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C35" t="n">
-        <v>2124.744622048154</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D35" t="n">
-        <v>1710.260626351336</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E35" t="n">
-        <v>1301.812859071671</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F35" t="n">
-        <v>892.8334361342853</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G35" t="n">
         <v>492.3327682960356</v>
@@ -7198,7 +7198,7 @@
         <v>4214.390158686993</v>
       </c>
       <c r="P38" t="n">
-        <v>5864.602299897897</v>
+        <v>5912.12964013179</v>
       </c>
       <c r="Q38" t="n">
         <v>6931.116362236997</v>
@@ -7207,19 +7207,19 @@
         <v>7048</v>
       </c>
       <c r="S38" t="n">
-        <v>6683.344625183177</v>
+        <v>6684.746993155883</v>
       </c>
       <c r="T38" t="n">
-        <v>6116.713394464005</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U38" t="n">
-        <v>5461.408922542916</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V38" t="n">
-        <v>4825.195766818852</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W38" t="n">
-        <v>4180.374073908803</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X38" t="n">
         <v>3583.51196363841</v>
@@ -7393,13 +7393,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C41" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D41" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E41" t="n">
         <v>1303.215227044376</v>
@@ -7432,7 +7432,7 @@
         <v>3304.235275746249</v>
       </c>
       <c r="O41" t="n">
-        <v>5028.734971800483</v>
+        <v>4214.390158686993</v>
       </c>
       <c r="P41" t="n">
         <v>5864.602299897897</v>
@@ -7450,19 +7450,19 @@
         <v>6116.713394464005</v>
       </c>
       <c r="U41" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V41" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W41" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X41" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y41" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="42">
@@ -7587,10 +7587,10 @@
         <v>166.9289267754419</v>
       </c>
       <c r="N43" t="n">
-        <v>166.9289267754419</v>
+        <v>140.96</v>
       </c>
       <c r="O43" t="n">
-        <v>166.9289267754419</v>
+        <v>140.96</v>
       </c>
       <c r="P43" t="n">
         <v>140.96</v>
@@ -7630,7 +7630,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2578.759347546128</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C44" t="n">
         <v>2126.146990020859</v>
@@ -7696,10 +7696,10 @@
         <v>4180.374073908803</v>
       </c>
       <c r="X44" t="n">
-        <v>3582.109595665705</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y44" t="n">
-        <v>3065.627340430547</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="45">
@@ -7757,7 +7757,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R45" t="n">
-        <v>5571.538498249245</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S45" t="n">
         <v>5159.222422432123</v>
@@ -7818,10 +7818,10 @@
         <v>307.8416045893196</v>
       </c>
       <c r="L46" t="n">
-        <v>275.6639043471516</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M46" t="n">
-        <v>166.9289267754419</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N46" t="n">
         <v>140.96</v>
@@ -8236,13 +8236,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>842.6516333931879</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>822.5705182964543</v>
       </c>
       <c r="Q5" t="n">
-        <v>595.7709581728407</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R5" t="n">
         <v>294.54111633436</v>
@@ -8464,7 +8464,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>822.5705182964548</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8476,7 +8476,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>822.5705182964543</v>
       </c>
       <c r="Q8" t="n">
         <v>615.8520732695737</v>
@@ -8947,10 +8947,10 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>822.5705182964546</v>
       </c>
       <c r="P14" t="n">
-        <v>822.5705182964543</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>615.8520732695737</v>
@@ -9409,28 +9409,28 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>603.283928249446</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>835.1386633165826</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>70.05686619102073</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R20" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9658,10 +9658,10 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>822.5705182964546</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>822.5705182964609</v>
       </c>
       <c r="Q23" t="n">
         <v>615.8520732695737</v>
@@ -9895,10 +9895,10 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>822.5705182964546</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>822.5705182964543</v>
       </c>
       <c r="Q26" t="n">
         <v>615.8520732695737</v>
@@ -10132,10 +10132,10 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>822.5705182964546</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>822.5705182964543</v>
       </c>
       <c r="Q29" t="n">
         <v>615.8520732695737</v>
@@ -10846,10 +10846,10 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>822.5705182964543</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q38" t="n">
-        <v>615.8520732695737</v>
+        <v>567.8446588919048</v>
       </c>
       <c r="R38" t="n">
         <v>294.54111633436</v>
@@ -11080,10 +11080,10 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>822.5705182964546</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>822.5705182964543</v>
       </c>
       <c r="Q41" t="n">
         <v>615.8520732695737</v>
@@ -23275,13 +23275,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23451,16 +23451,16 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N13" t="n">
-        <v>142.3116902230136</v>
+        <v>168.0209277307011</v>
       </c>
       <c r="O13" t="n">
-        <v>268.0582198167198</v>
+        <v>102.8454312732934</v>
       </c>
       <c r="P13" t="n">
         <v>368.8061924102448</v>
@@ -23627,10 +23627,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>1.53369995757339</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>1.533699957572765</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -23755,7 +23755,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23803,7 +23803,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>1.38834429297799</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23931,10 +23931,10 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>142.3116902230136</v>
+        <v>168.0209277307011</v>
       </c>
       <c r="O19" t="n">
-        <v>268.0582198167198</v>
+        <v>242.3489823090323</v>
       </c>
       <c r="P19" t="n">
         <v>368.8061924102448</v>
@@ -23989,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24025,7 +24025,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24171,10 +24171,10 @@
         <v>168.0209277307011</v>
       </c>
       <c r="O22" t="n">
-        <v>242.3489823090323</v>
+        <v>268.0582198167198</v>
       </c>
       <c r="P22" t="n">
-        <v>368.8061924102448</v>
+        <v>343.0969549025573</v>
       </c>
       <c r="Q22" t="n">
         <v>505.228266425598</v>
@@ -24229,7 +24229,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1.388344292970999</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24262,7 +24262,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>1.388344292978275</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24338,10 +24338,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>1.53369995757339</v>
       </c>
       <c r="S24" t="n">
-        <v>1.533699957572765</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -24405,10 +24405,10 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>168.0209277307011</v>
+        <v>142.3116902230136</v>
       </c>
       <c r="O25" t="n">
-        <v>242.3489823090323</v>
+        <v>268.0582198167198</v>
       </c>
       <c r="P25" t="n">
         <v>368.8061924102448</v>
@@ -24466,7 +24466,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24499,7 +24499,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24812,7 +24812,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>1.533699953843268</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -24827,7 +24827,7 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>1.533699954469398</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -24934,7 +24934,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24973,7 +24973,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>1.388344292978275</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -25113,10 +25113,10 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N34" t="n">
-        <v>142.3116902230136</v>
+        <v>34.66406242702104</v>
       </c>
       <c r="O34" t="n">
         <v>268.0582198167198</v>
@@ -25159,7 +25159,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25174,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25447,7 +25447,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25462,7 +25462,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>1.38834429297799</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25642,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25690,7 +25690,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>1.388344292977649</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25827,13 +25827,13 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>168.0209277307011</v>
+        <v>142.3116902230136</v>
       </c>
       <c r="O43" t="n">
         <v>268.0582198167198</v>
       </c>
       <c r="P43" t="n">
-        <v>343.0969549025573</v>
+        <v>368.8061924102448</v>
       </c>
       <c r="Q43" t="n">
         <v>505.228266425598</v>
@@ -25873,70 +25873,70 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
         <v>1.38834429297799</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0</v>
-      </c>
-      <c r="X44" t="n">
-        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -25997,10 +25997,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>1.53369995757339</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>1.533699957572765</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -26058,13 +26058,13 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N46" t="n">
-        <v>142.3116902230136</v>
+        <v>2.808139187274691</v>
       </c>
       <c r="O46" t="n">
         <v>268.0582198167198</v>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15184.78357961384</v>
+        <v>1253038.088453473</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30192.00001986755</v>
+        <v>2480930.702777752</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>45199.21646012126</v>
+        <v>3708823.317102033</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>62279.94460265019</v>
+        <v>4808665.190726485</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>79360.67274517911</v>
+        <v>5908507.064350937</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>96441.40088770803</v>
+        <v>7008348.937975383</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>113522.129030237</v>
+        <v>8108190.811599827</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>130602.8571727659</v>
+        <v>9208032.685224272</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>147683.5853152948</v>
+        <v>10307874.55884872</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>164764.3134578221</v>
+        <v>11407716.43247348</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>181845.041600351</v>
+        <v>12507558.30609793</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>198925.76974288</v>
+        <v>13607400.17972238</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>216006.497885409</v>
+        <v>14707242.05334684</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>233087.2260279381</v>
+        <v>15807083.92697131</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>250167.9541704673</v>
+        <v>16906925.80059577</v>
       </c>
     </row>
   </sheetData>
@@ -26319,34 +26319,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>976017.2062577608</v>
+        <v>976017.2062577603</v>
       </c>
       <c r="C2" t="n">
         <v>976017.2062577604</v>
       </c>
       <c r="D2" t="n">
-        <v>976017.2062577608</v>
+        <v>976017.2062577603</v>
       </c>
       <c r="E2" t="n">
         <v>874233.2841630247</v>
       </c>
       <c r="F2" t="n">
-        <v>874233.2841630247</v>
+        <v>874233.2841630249</v>
       </c>
       <c r="G2" t="n">
         <v>874233.2841630249</v>
       </c>
       <c r="H2" t="n">
-        <v>874233.284163025</v>
+        <v>874233.2841630249</v>
       </c>
       <c r="I2" t="n">
-        <v>874233.2841630249</v>
+        <v>874233.2841630254</v>
       </c>
       <c r="J2" t="n">
-        <v>874233.2841630249</v>
+        <v>874233.2841630247</v>
       </c>
       <c r="K2" t="n">
-        <v>874233.2841632619</v>
+        <v>874233.2841632826</v>
       </c>
       <c r="L2" t="n">
         <v>874233.2841630247</v>
@@ -26355,13 +26355,13 @@
         <v>874233.2841630247</v>
       </c>
       <c r="N2" t="n">
-        <v>874233.2841630247</v>
+        <v>874233.284163025</v>
       </c>
       <c r="O2" t="n">
-        <v>874233.2841630247</v>
+        <v>874233.2841630249</v>
       </c>
       <c r="P2" t="n">
-        <v>874233.2841630247</v>
+        <v>874233.2841630244</v>
       </c>
     </row>
     <row r="3">
@@ -26435,22 +26435,22 @@
         <v>26356.19966309946</v>
       </c>
       <c r="F4" t="n">
-        <v>26356.19966309946</v>
+        <v>26356.19966309947</v>
       </c>
       <c r="G4" t="n">
         <v>26356.19966309946</v>
       </c>
       <c r="H4" t="n">
+        <v>26356.19966309945</v>
+      </c>
+      <c r="I4" t="n">
+        <v>26356.19966309952</v>
+      </c>
+      <c r="J4" t="n">
         <v>26356.19966309946</v>
       </c>
-      <c r="I4" t="n">
-        <v>26356.19966309947</v>
-      </c>
-      <c r="J4" t="n">
-        <v>26356.19966309947</v>
-      </c>
       <c r="K4" t="n">
-        <v>26356.19966326904</v>
+        <v>26356.19966328369</v>
       </c>
       <c r="L4" t="n">
         <v>26356.19966309946</v>
@@ -26462,7 +26462,7 @@
         <v>26356.19966309946</v>
       </c>
       <c r="O4" t="n">
-        <v>26356.19966309947</v>
+        <v>26356.19966309946</v>
       </c>
       <c r="P4" t="n">
         <v>26356.19966309946</v>
@@ -26533,13 +26533,13 @@
         <v>702063.6164260099</v>
       </c>
       <c r="D6" t="n">
-        <v>702365.9770959433</v>
+        <v>702365.9770959428</v>
       </c>
       <c r="E6" t="n">
         <v>708897.6844999252</v>
       </c>
       <c r="F6" t="n">
-        <v>708897.6844999252</v>
+        <v>708897.6844999255</v>
       </c>
       <c r="G6" t="n">
         <v>708897.6844999255</v>
@@ -26548,13 +26548,13 @@
         <v>708897.6844999255</v>
       </c>
       <c r="I6" t="n">
-        <v>708897.6844999255</v>
+        <v>708897.6844999259</v>
       </c>
       <c r="J6" t="n">
-        <v>88673.68449992541</v>
+        <v>88673.68449992529</v>
       </c>
       <c r="K6" t="n">
-        <v>708897.6844999929</v>
+        <v>708897.6844999989</v>
       </c>
       <c r="L6" t="n">
         <v>708897.6844999252</v>
@@ -26563,13 +26563,13 @@
         <v>708897.6844999252</v>
       </c>
       <c r="N6" t="n">
-        <v>708897.6844999252</v>
+        <v>708897.6844999255</v>
       </c>
       <c r="O6" t="n">
-        <v>708897.6844999252</v>
+        <v>708897.6844999255</v>
       </c>
       <c r="P6" t="n">
-        <v>708897.6844999252</v>
+        <v>708897.684499925</v>
       </c>
     </row>
   </sheetData>
@@ -27037,34 +27037,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27150,16 +27150,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27526,7 +27526,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27559,7 +27559,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27702,13 +27702,13 @@
         <v>107.6476277959926</v>
       </c>
       <c r="N4" t="n">
-        <v>287.9921561219296</v>
+        <v>168.0209277307011</v>
       </c>
       <c r="O4" t="n">
-        <v>268.0582198167198</v>
+        <v>400</v>
       </c>
       <c r="P4" t="n">
-        <v>400</v>
+        <v>388.0294482079483</v>
       </c>
       <c r="Q4" t="n">
         <v>400</v>
@@ -27754,16 +27754,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
         <v>1.388344292978218</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27982,7 +27982,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -28036,7 +28036,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>1.38834429297799</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -28076,10 +28076,10 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>1.533699957572992</v>
       </c>
       <c r="H9" t="n">
-        <v>1.533699957573049</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -28176,10 +28176,10 @@
         <v>107.6476277959926</v>
       </c>
       <c r="N10" t="n">
-        <v>168.0209277307011</v>
+        <v>287.9921561219296</v>
       </c>
       <c r="O10" t="n">
-        <v>388.0294482079483</v>
+        <v>268.0582198167198</v>
       </c>
       <c r="P10" t="n">
         <v>400</v>
@@ -29720,22 +29720,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>1.564330887049437e-10</v>
       </c>
       <c r="C30" t="n">
         <v>1.564330887049437e-10</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>1.564330887049437e-10</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>1.564330887049437e-10</v>
       </c>
       <c r="F30" t="n">
         <v>1.564330887049437e-10</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>1.564330887049437e-10</v>
       </c>
       <c r="H30" t="n">
         <v>1.564330887049437e-10</v>
@@ -34998,13 +34998,13 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>119.9712283912285</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>131.9417801832802</v>
       </c>
       <c r="P4" t="n">
-        <v>31.19380758975518</v>
+        <v>19.22325579770347</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35080,13 +35080,13 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O5" t="n">
-        <v>1762</v>
+        <v>919.3483666068121</v>
       </c>
       <c r="P5" t="n">
-        <v>844.3104324216301</v>
+        <v>1666.880950718084</v>
       </c>
       <c r="Q5" t="n">
-        <v>1057.205816558923</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R5" t="n">
         <v>118.0642805686905</v>
@@ -35308,7 +35308,7 @@
         <v>747.1142864321608</v>
       </c>
       <c r="L8" t="n">
-        <v>1749.431854979872</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M8" t="n">
         <v>487.0496964782857</v>
@@ -35320,7 +35320,7 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P8" t="n">
-        <v>844.3104324216301</v>
+        <v>1666.880950718084</v>
       </c>
       <c r="Q8" t="n">
         <v>1077.286931655656</v>
@@ -35472,10 +35472,10 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>119.9712283912285</v>
       </c>
       <c r="O10" t="n">
-        <v>119.9712283912285</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>31.19380758975518</v>
@@ -35791,10 +35791,10 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O14" t="n">
-        <v>919.3483666068121</v>
+        <v>1741.918884903267</v>
       </c>
       <c r="P14" t="n">
-        <v>1666.880950718084</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q14" t="n">
         <v>1077.286931655656</v>
@@ -36253,28 +36253,28 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K20" t="n">
-        <v>1350.398214681607</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L20" t="n">
-        <v>1762</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M20" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N20" t="n">
-        <v>570.7505695683558</v>
+        <v>640.8074357593765</v>
       </c>
       <c r="O20" t="n">
         <v>919.3483666068121</v>
       </c>
       <c r="P20" t="n">
-        <v>844.3104324216301</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q20" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R20" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36502,10 +36502,10 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O23" t="n">
-        <v>1741.918884903267</v>
+        <v>919.3483666068121</v>
       </c>
       <c r="P23" t="n">
-        <v>844.3104324216301</v>
+        <v>1666.880950718091</v>
       </c>
       <c r="Q23" t="n">
         <v>1077.286931655656</v>
@@ -36739,10 +36739,10 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O26" t="n">
-        <v>1741.918884903267</v>
+        <v>919.3483666068121</v>
       </c>
       <c r="P26" t="n">
-        <v>844.3104324216301</v>
+        <v>1666.880950718084</v>
       </c>
       <c r="Q26" t="n">
         <v>1077.286931655656</v>
@@ -36976,10 +36976,10 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O29" t="n">
-        <v>1741.918884903267</v>
+        <v>919.3483666068121</v>
       </c>
       <c r="P29" t="n">
-        <v>844.3104324216301</v>
+        <v>1666.880950718084</v>
       </c>
       <c r="Q29" t="n">
         <v>1077.286931655656</v>
@@ -37690,10 +37690,10 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P38" t="n">
-        <v>1666.880950718084</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q38" t="n">
-        <v>1077.286931655656</v>
+        <v>1029.279517277987</v>
       </c>
       <c r="R38" t="n">
         <v>118.0642805686905</v>
@@ -37924,10 +37924,10 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O41" t="n">
-        <v>1741.918884903267</v>
+        <v>919.3483666068121</v>
       </c>
       <c r="P41" t="n">
-        <v>844.3104324216301</v>
+        <v>1666.880950718084</v>
       </c>
       <c r="Q41" t="n">
         <v>1077.286931655656</v>
